--- a/Excel/Simatm26_1_1_3_LD.xlsx
+++ b/Excel/Simatm26_1_1_3_LD.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI All\ICONS NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI All\ICONS DEMO SIMATM\ICONS-main\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B70D4-4F7D-4C6C-B1CD-5D13A8CBA070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAE202F-5832-4AC0-9B24-ED5043EF3D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simatm26_1_1_3_BD" sheetId="1" r:id="rId1"/>
+    <sheet name="Simatm26_1_1_3_LD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>RUN</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>simatm 26 1 1 3</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +519,9 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
